--- a/biology/Zoologie/Apodemus_argenteus/Apodemus_argenteus.xlsx
+++ b/biology/Zoologie/Apodemus_argenteus/Apodemus_argenteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apodemus argenteus, est un petit rongeur de la famille des Muridés. On ne rencontre cette espèce qu'au Japon, d'ailleurs les anglophones le nomment small Japanese field mouse (petite souris des champs japonaise).
 </t>
